--- a/zhangsen.xlsx
+++ b/zhangsen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,34 @@
   </si>
   <si>
     <t>培训张拓电脑知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adas转换添加LOG,代码提交，测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化发布流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检没有匹配上adas信息的LINK,输出到geojson中，字段LINK_ID,MESH_ID,GEOMETRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务化调通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通行能力表更新统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习一种socket通信，比如ftp，了解ftp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,8 +137,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -461,20 +501,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43509</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/zhangsen.xlsx
+++ b/zhangsen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>学习一种socket通信，比如ftp，了解ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/kevingrace/p/5690241.html git ignore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -556,6 +560,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zhangsen.xlsx
+++ b/zhangsen.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="当前工作" sheetId="1" r:id="rId1"/>
+    <sheet name="tcp-ip" sheetId="2" r:id="rId2"/>
+    <sheet name="Unix高级环境编程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +91,138 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/kevingrace/p/5690241.html git ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMESERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名字服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOTPClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服端启动协议服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOTServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端启动协议服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单文件传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微系统传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件出书服务器 数据连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程终端服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单邮件传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超文本传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adas并发死锁的问题，要快速解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章，第二章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +246,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,12 +294,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,8 +321,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,6 +343,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="7277100" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -565,9 +785,270 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20190216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>20190216</v>
+      </c>
+      <c r="D2">
+        <v>20190216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/zhangsen.xlsx
+++ b/zhangsen.xlsx
@@ -10,6 +10,8 @@
     <sheet name="当前工作" sheetId="1" r:id="rId1"/>
     <sheet name="tcp-ip" sheetId="2" r:id="rId2"/>
     <sheet name="Unix高级环境编程" sheetId="3" r:id="rId3"/>
+    <sheet name="ftp" sheetId="4" r:id="rId4"/>
+    <sheet name="word" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +225,22 @@
   </si>
   <si>
     <t>第一章，第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictates</t>
+  </si>
+  <si>
+    <t>硬连接，14字符， BSD 225，路径名，sigaction sigprocmask, (void) sigaction(SIGXCPU, &amp;sa, NULL);(void) sigprocmask(SIG_SETMASK, &amp;sigs, NULL);
+https://blog.csdn.net/zz709196484/article/details/54770017 exit()与_exit()函数的区别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +312,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,8 +328,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,12 +348,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1000,12 +1029,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="7" max="7" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1031,7 +1061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="36">
       <c r="A2">
         <v>20190216</v>
       </c>
@@ -1043,6 +1073,9 @@
       </c>
       <c r="D2">
         <v>20190216</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1055,4 +1088,83 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20190115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/zhangsen.xlsx
+++ b/zhangsen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="当前工作" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
